--- a/Code/Results/Cases/Case_1_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_150/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.360091052141456</v>
+        <v>1.768647483540576</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03640698371297901</v>
+        <v>0.01306468109396519</v>
       </c>
       <c r="E2">
-        <v>2.93335048000489</v>
+        <v>1.254454410282079</v>
       </c>
       <c r="F2">
-        <v>0.4551388394314131</v>
+        <v>0.4207376222180699</v>
       </c>
       <c r="G2">
-        <v>0.0007534188291522189</v>
+        <v>0.002368925570076562</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.438715433936352</v>
+        <v>0.8549488623162915</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.167630566930285</v>
+        <v>1.303034954123888</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931480776157571</v>
+        <v>1.636809724457521</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03181878497186119</v>
+        <v>0.01159173079111042</v>
       </c>
       <c r="E3">
-        <v>2.584030087417972</v>
+        <v>1.144640531064397</v>
       </c>
       <c r="F3">
-        <v>0.3980982411352301</v>
+        <v>0.4171397892705926</v>
       </c>
       <c r="G3">
-        <v>0.0007591132879944396</v>
+        <v>0.0023725547546041</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.116480176209194</v>
+        <v>0.7511826128100836</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.025110220216447</v>
+        <v>1.306268060040253</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.670246538296112</v>
+        <v>1.555848833617347</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02901573625246812</v>
+        <v>0.01068607563622237</v>
       </c>
       <c r="E4">
-        <v>2.370909094950093</v>
+        <v>1.077432815501766</v>
       </c>
       <c r="F4">
-        <v>0.365102460485403</v>
+        <v>0.4155398450059948</v>
       </c>
       <c r="G4">
-        <v>0.0007627043181069955</v>
+        <v>0.002374898240683515</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.919690893299361</v>
+        <v>0.6872320586698493</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9444776509516259</v>
+        <v>1.310336985678077</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.564186526876711</v>
+        <v>1.52285433251069</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02787623493016866</v>
+        <v>0.01031672921270399</v>
       </c>
       <c r="E5">
-        <v>2.284352463368009</v>
+        <v>1.050103026458686</v>
       </c>
       <c r="F5">
-        <v>0.3521180670270212</v>
+        <v>0.4150398023411697</v>
       </c>
       <c r="G5">
-        <v>0.0007641923964977781</v>
+        <v>0.002375882278242808</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.839702557816452</v>
+        <v>0.6611128533875501</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9131875211855913</v>
+        <v>1.312514751756567</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.546596677758714</v>
+        <v>1.517375506009103</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02768716715245745</v>
+        <v>0.0102553832843526</v>
       </c>
       <c r="E6">
-        <v>2.269996044051624</v>
+        <v>1.04556852204621</v>
       </c>
       <c r="F6">
-        <v>0.3499885561454548</v>
+        <v>0.414965911956692</v>
       </c>
       <c r="G6">
-        <v>0.0007644410084695033</v>
+        <v>0.002376047433941953</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.826431201220856</v>
+        <v>0.6567722543272794</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9080820562560348</v>
+        <v>1.312907626230697</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.668814691498312</v>
+        <v>1.555403866469476</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02900035832669801</v>
+        <v>0.01068109561159503</v>
       </c>
       <c r="E7">
-        <v>2.369740643452204</v>
+        <v>1.077063997964302</v>
       </c>
       <c r="F7">
-        <v>0.3649255404152782</v>
+        <v>0.4155324876546302</v>
       </c>
       <c r="G7">
-        <v>0.0007627242856327021</v>
+        <v>0.002374911393969643</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.918611391960553</v>
+        <v>0.6868800428690065</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9440495154619271</v>
+        <v>1.310364257536037</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.211847295295456</v>
+        <v>1.723192684674018</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03482153798305632</v>
+        <v>0.01255708706644754</v>
       </c>
       <c r="E8">
-        <v>2.812589492065086</v>
+        <v>1.216546961223202</v>
       </c>
       <c r="F8">
-        <v>0.435020404821465</v>
+        <v>0.4193699236983335</v>
       </c>
       <c r="G8">
-        <v>0.00075536321362172</v>
+        <v>0.002370153068713556</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.327348141679892</v>
+        <v>0.8192200897525765</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.116962247096609</v>
+        <v>1.303714628382977</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.29666496005035</v>
+        <v>2.052119155879382</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04638995719072625</v>
+        <v>0.01622476230484438</v>
       </c>
       <c r="E9">
-        <v>3.694459581297934</v>
+        <v>1.49169411178363</v>
       </c>
       <c r="F9">
-        <v>0.5909245608633071</v>
+        <v>0.4317845066952799</v>
       </c>
       <c r="G9">
-        <v>0.0007416337991787035</v>
+        <v>0.002361731456869596</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.140502050689577</v>
+        <v>1.076827810570478</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.518481934935949</v>
+        <v>1.307405281101126</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.112983715140615</v>
+        <v>2.293730119485531</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05504900879972041</v>
+        <v>0.01891139713546863</v>
       </c>
       <c r="E10">
-        <v>4.354767236515755</v>
+        <v>1.694710289645229</v>
       </c>
       <c r="F10">
-        <v>0.7203278499989807</v>
+        <v>0.443965139946485</v>
       </c>
       <c r="G10">
-        <v>0.0007319078598865118</v>
+        <v>0.00235609255876025</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.75000075890739</v>
+        <v>1.26491687341786</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.863618611355662</v>
+        <v>1.32058979470284</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.490355533729939</v>
+        <v>2.403640098074163</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05904050125839433</v>
+        <v>0.02013166033739822</v>
       </c>
       <c r="E11">
-        <v>4.658938727999868</v>
+        <v>1.787232778584467</v>
       </c>
       <c r="F11">
-        <v>0.7833306293332072</v>
+        <v>0.4501878171948022</v>
       </c>
       <c r="G11">
-        <v>0.0007275444132146168</v>
+        <v>0.002353645093650047</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.031175179519039</v>
+        <v>1.350228553547993</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.03455587762798</v>
+        <v>1.328920728301114</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.634293326542547</v>
+        <v>2.445260175988835</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06056122166096145</v>
+        <v>0.02059344640868943</v>
       </c>
       <c r="E12">
-        <v>4.774769191751005</v>
+        <v>1.822290776007833</v>
       </c>
       <c r="F12">
-        <v>0.807868475200749</v>
+        <v>0.4526435486367717</v>
       </c>
       <c r="G12">
-        <v>0.0007258992435595036</v>
+        <v>0.002352735129906258</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.138331327480444</v>
+        <v>1.382497466833286</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.101576110895166</v>
+        <v>1.332415675667391</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.603244800905259</v>
+        <v>2.436296573495952</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06023326740575641</v>
+        <v>0.02049400633900689</v>
       </c>
       <c r="E13">
-        <v>4.749792483091682</v>
+        <v>1.814739482831527</v>
       </c>
       <c r="F13">
-        <v>0.8025521037819772</v>
+        <v>0.4521102238261108</v>
       </c>
       <c r="G13">
-        <v>0.0007262532684520195</v>
+        <v>0.002352930359409176</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.115220971969507</v>
+        <v>1.375549424358326</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.087035338710848</v>
+        <v>1.33164777092324</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.502175595978144</v>
+        <v>2.407064218097617</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05916541636005235</v>
+        <v>0.02016965794577885</v>
       </c>
       <c r="E14">
-        <v>4.668454568808244</v>
+        <v>1.790116600112668</v>
       </c>
       <c r="F14">
-        <v>0.7853352204981832</v>
+        <v>0.450387853252991</v>
       </c>
       <c r="G14">
-        <v>0.0007274089300759163</v>
+        <v>0.00235356989328536</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.039976588257048</v>
+        <v>1.352884077000965</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.040022018670953</v>
+        <v>1.329201414686764</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.440407962938878</v>
+        <v>2.389158486639872</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05851258278563165</v>
+        <v>0.01997094516900688</v>
       </c>
       <c r="E15">
-        <v>4.618720282647445</v>
+        <v>1.775037128421985</v>
       </c>
       <c r="F15">
-        <v>0.7748806404897834</v>
+        <v>0.449345827493687</v>
       </c>
       <c r="G15">
-        <v>0.0007281176901863251</v>
+        <v>0.002353963816599802</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.993979762697336</v>
+        <v>1.338996089993771</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.011532292400375</v>
+        <v>1.327747394530974</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.088456811407639</v>
+        <v>2.286547203603959</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05478934961712412</v>
+        <v>0.01883160941687834</v>
       </c>
       <c r="E16">
-        <v>4.334973676015352</v>
+        <v>1.688666909914076</v>
       </c>
       <c r="F16">
-        <v>0.7163007788458486</v>
+        <v>0.443572302560014</v>
       </c>
       <c r="G16">
-        <v>0.0007321941155604004</v>
+        <v>0.00235625486718944</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.731713905884305</v>
+        <v>1.259336444645896</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.852751578311029</v>
+        <v>1.320092699918007</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.874203411554106</v>
+        <v>2.223598154645003</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05251982712874081</v>
+        <v>0.01813215689846714</v>
       </c>
       <c r="E17">
-        <v>4.161944626628241</v>
+        <v>1.635723070696116</v>
       </c>
       <c r="F17">
-        <v>0.6814811149371707</v>
+        <v>0.4402059564513223</v>
       </c>
       <c r="G17">
-        <v>0.0007347093992556841</v>
+        <v>0.002357690436171368</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.57190429421604</v>
+        <v>1.210403046836291</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.759107124723698</v>
+        <v>1.315997724927541</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.751526357191267</v>
+        <v>2.187391542216858</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05121928017818789</v>
+        <v>0.01772967301787531</v>
       </c>
       <c r="E18">
-        <v>4.062773229029204</v>
+        <v>1.605287270771925</v>
       </c>
       <c r="F18">
-        <v>0.6618374882741023</v>
+        <v>0.4383338042023297</v>
       </c>
       <c r="G18">
-        <v>0.0007361619638434414</v>
+        <v>0.002358527220967663</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.48034617062558</v>
+        <v>1.182234263611747</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.706537787006909</v>
+        <v>1.313861738390926</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.710080640954402</v>
+        <v>2.175132622594845</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05077971794403169</v>
+        <v>0.01759336930976474</v>
       </c>
       <c r="E19">
-        <v>4.029252769360227</v>
+        <v>1.594985077961923</v>
       </c>
       <c r="F19">
-        <v>0.6552499540924543</v>
+        <v>0.4377108913924843</v>
       </c>
       <c r="G19">
-        <v>0.0007366548260016074</v>
+        <v>0.002358812448110925</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.449404611687214</v>
+        <v>1.172692768310753</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.688952487012841</v>
+        <v>1.313176058146695</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.896952362154764</v>
+        <v>2.230299190171877</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05276091110204106</v>
+        <v>0.01820663336736317</v>
       </c>
       <c r="E20">
-        <v>4.180326908690546</v>
+        <v>1.641357386185149</v>
       </c>
       <c r="F20">
-        <v>0.6851474264816488</v>
+        <v>0.4405576680592844</v>
       </c>
       <c r="G20">
-        <v>0.0007344410495547997</v>
+        <v>0.002357536470981137</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.588878208523909</v>
+        <v>1.215614536831765</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.768939997989378</v>
+        <v>1.316410907780551</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.531832529708538</v>
+        <v>2.415650484680782</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05947880498732161</v>
+        <v>0.0202649353196378</v>
       </c>
       <c r="E21">
-        <v>4.692327044042571</v>
+        <v>1.797348368044908</v>
       </c>
       <c r="F21">
-        <v>0.7903730523671584</v>
+        <v>0.4508910487123075</v>
       </c>
       <c r="G21">
-        <v>0.0007270693031246611</v>
+        <v>0.002353381590488926</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.06205817089176</v>
+        <v>1.359542441890142</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.053766372860821</v>
+        <v>1.32991069842555</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.952890886319835</v>
+        <v>2.536785523764649</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06392409277864175</v>
+        <v>0.02160838739740711</v>
       </c>
       <c r="E22">
-        <v>5.030778449425696</v>
+        <v>1.899423057474934</v>
       </c>
       <c r="F22">
-        <v>0.8631548043446884</v>
+        <v>0.4582241435132346</v>
       </c>
       <c r="G22">
-        <v>0.0007222923808140602</v>
+        <v>0.002350764242845495</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.375346913541932</v>
+        <v>1.453393066562228</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.253422460966391</v>
+        <v>1.340718734831711</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.727542351052762</v>
+        <v>2.472133849767943</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06154592684588778</v>
+        <v>0.02089153233118424</v>
       </c>
       <c r="E23">
-        <v>4.849753146780074</v>
+        <v>1.844933225701794</v>
       </c>
       <c r="F23">
-        <v>0.823912070236986</v>
+        <v>0.4542568607296857</v>
       </c>
       <c r="G23">
-        <v>0.0007248387403394609</v>
+        <v>0.002352152222200418</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.20772609435852</v>
+        <v>1.403323062572554</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.145522953970925</v>
+        <v>1.3347670927688</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.886666016477704</v>
+        <v>2.227269702944284</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05265190398097275</v>
+        <v>0.01817296367310206</v>
       </c>
       <c r="E24">
-        <v>4.172015335530659</v>
+        <v>1.638810104736137</v>
       </c>
       <c r="F24">
-        <v>0.6834887263641747</v>
+        <v>0.4403984624660211</v>
       </c>
       <c r="G24">
-        <v>0.0007345623501251347</v>
+        <v>0.002357606042964623</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.581203318475275</v>
+        <v>1.213258535301406</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.764490627355798</v>
+        <v>1.316223428285554</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.000366017286694</v>
+        <v>1.963146132920542</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04323767918577914</v>
+        <v>0.01523388166376094</v>
       </c>
       <c r="E25">
-        <v>3.454047405449927</v>
+        <v>1.417099027822076</v>
       </c>
       <c r="F25">
-        <v>0.5464213620373712</v>
+        <v>0.4278944255521679</v>
       </c>
       <c r="G25">
-        <v>0.000745279171400002</v>
+        <v>0.002363912980844457</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.918796059516637</v>
+        <v>1.007343999713839</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.402000790554212</v>
+        <v>1.304587447384591</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_150/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.768647483540576</v>
+        <v>3.360091052141456</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01306468109396519</v>
+        <v>0.03640698371299322</v>
       </c>
       <c r="E2">
-        <v>1.254454410282079</v>
+        <v>2.933350480004862</v>
       </c>
       <c r="F2">
-        <v>0.4207376222180699</v>
+        <v>0.4551388394314131</v>
       </c>
       <c r="G2">
-        <v>0.002368925570076562</v>
+        <v>0.0007534188291240251</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8549488623162915</v>
+        <v>2.438715433936494</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.303034954123888</v>
+        <v>1.167630566930342</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.636809724457521</v>
+        <v>2.931480776157855</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01159173079111042</v>
+        <v>0.03181878497197488</v>
       </c>
       <c r="E3">
-        <v>1.144640531064397</v>
+        <v>2.584030087418</v>
       </c>
       <c r="F3">
-        <v>0.4171397892705926</v>
+        <v>0.3980982411352088</v>
       </c>
       <c r="G3">
-        <v>0.0023725547546041</v>
+        <v>0.0007591132878812728</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7511826128100836</v>
+        <v>2.116480176209393</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.306268060040253</v>
+        <v>1.025110220216334</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.555848833617347</v>
+        <v>2.670246538296283</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01068607563622237</v>
+        <v>0.02901573625227627</v>
       </c>
       <c r="E4">
-        <v>1.077432815501766</v>
+        <v>2.370909094950107</v>
       </c>
       <c r="F4">
-        <v>0.4155398450059948</v>
+        <v>0.3651024604853887</v>
       </c>
       <c r="G4">
-        <v>0.002374898240683515</v>
+        <v>0.0007627043181643238</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6872320586698493</v>
+        <v>1.919690893299361</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.310336985678077</v>
+        <v>0.9444776509515691</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.52285433251069</v>
+        <v>2.564186526876597</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01031672921270399</v>
+        <v>0.02787623493031788</v>
       </c>
       <c r="E5">
-        <v>1.050103026458686</v>
+        <v>2.284352463367952</v>
       </c>
       <c r="F5">
-        <v>0.4150398023411697</v>
+        <v>0.3521180670270283</v>
       </c>
       <c r="G5">
-        <v>0.002375882278242808</v>
+        <v>0.0007641923965156211</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6611128533875501</v>
+        <v>1.839702557816395</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.312514751756567</v>
+        <v>0.9131875211856197</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.517375506009103</v>
+        <v>2.546596677759055</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0102553832843526</v>
+        <v>0.02768716715233666</v>
       </c>
       <c r="E6">
-        <v>1.04556852204621</v>
+        <v>2.269996044051624</v>
       </c>
       <c r="F6">
-        <v>0.414965911956692</v>
+        <v>0.3499885561454477</v>
       </c>
       <c r="G6">
-        <v>0.002376047433941953</v>
+        <v>0.0007644410084301459</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6567722543272794</v>
+        <v>1.826431201220856</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.312907626230697</v>
+        <v>0.9080820562560632</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.555403866469476</v>
+        <v>2.66881469149871</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01068109561159503</v>
+        <v>0.02900035832658432</v>
       </c>
       <c r="E7">
-        <v>1.077063997964302</v>
+        <v>2.369740643452232</v>
       </c>
       <c r="F7">
-        <v>0.4155324876546302</v>
+        <v>0.3649255404152854</v>
       </c>
       <c r="G7">
-        <v>0.002374911393969643</v>
+        <v>0.0007627242856517424</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6868800428690065</v>
+        <v>1.91861139196044</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.310364257536037</v>
+        <v>0.9440495154618986</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.723192684674018</v>
+        <v>3.211847295294945</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01255708706644754</v>
+        <v>0.03482153798310605</v>
       </c>
       <c r="E8">
-        <v>1.216546961223202</v>
+        <v>2.812589492065058</v>
       </c>
       <c r="F8">
-        <v>0.4193699236983335</v>
+        <v>0.4350204048214579</v>
       </c>
       <c r="G8">
-        <v>0.002370153068713556</v>
+        <v>0.0007553632136786529</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8192200897525765</v>
+        <v>2.327348141679977</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.303714628382977</v>
+        <v>1.116962247096637</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.052119155879382</v>
+        <v>4.296664960050123</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01622476230484438</v>
+        <v>0.04638995719067651</v>
       </c>
       <c r="E9">
-        <v>1.49169411178363</v>
+        <v>3.694459581297991</v>
       </c>
       <c r="F9">
-        <v>0.4317845066952799</v>
+        <v>0.5909245608633071</v>
       </c>
       <c r="G9">
-        <v>0.002361731456869596</v>
+        <v>0.0007416337991513282</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.076827810570478</v>
+        <v>3.140502050689577</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.307405281101126</v>
+        <v>1.518481934935807</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.293730119485531</v>
+        <v>5.112983715140672</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01891139713546863</v>
+        <v>0.05504900879972041</v>
       </c>
       <c r="E10">
-        <v>1.694710289645229</v>
+        <v>4.354767236515812</v>
       </c>
       <c r="F10">
-        <v>0.443965139946485</v>
+        <v>0.7203278499989665</v>
       </c>
       <c r="G10">
-        <v>0.00235609255876025</v>
+        <v>0.0007319078599130803</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.26491687341786</v>
+        <v>3.750000758908016</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.32058979470284</v>
+        <v>1.863618611355605</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.403640098074163</v>
+        <v>5.490355533729769</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02013166033739822</v>
+        <v>0.05904050125838012</v>
       </c>
       <c r="E11">
-        <v>1.787232778584467</v>
+        <v>4.658938727999839</v>
       </c>
       <c r="F11">
-        <v>0.4501878171948022</v>
+        <v>0.7833306293332072</v>
       </c>
       <c r="G11">
-        <v>0.002353645093650047</v>
+        <v>0.0007275444132134201</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.350228553547993</v>
+        <v>4.031175179519323</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.328920728301114</v>
+        <v>2.034555877628037</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.445260175988835</v>
+        <v>5.634293326542718</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02059344640868943</v>
+        <v>0.06056122166068434</v>
       </c>
       <c r="E12">
-        <v>1.822290776007833</v>
+        <v>4.774769191751005</v>
       </c>
       <c r="F12">
-        <v>0.4526435486367717</v>
+        <v>0.8078684752007348</v>
       </c>
       <c r="G12">
-        <v>0.002352735129906258</v>
+        <v>0.0007258992435864437</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.382497466833286</v>
+        <v>4.138331327480557</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.332415675667391</v>
+        <v>2.101576110895195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.436296573495952</v>
+        <v>5.603244800904747</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02049400633900689</v>
+        <v>0.0602332674057422</v>
       </c>
       <c r="E13">
-        <v>1.814739482831527</v>
+        <v>4.749792483091568</v>
       </c>
       <c r="F13">
-        <v>0.4521102238261108</v>
+        <v>0.8025521037819772</v>
       </c>
       <c r="G13">
-        <v>0.002352930359409176</v>
+        <v>0.0007262532685028465</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.375549424358326</v>
+        <v>4.11522097196962</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.33164777092324</v>
+        <v>2.087035338710848</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.407064218097617</v>
+        <v>5.502175595978883</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02016965794577885</v>
+        <v>0.0591654163601163</v>
       </c>
       <c r="E14">
-        <v>1.790116600112668</v>
+        <v>4.668454568808215</v>
       </c>
       <c r="F14">
-        <v>0.450387853252991</v>
+        <v>0.7853352204981832</v>
       </c>
       <c r="G14">
-        <v>0.00235356989328536</v>
+        <v>0.0007274089301027847</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.352884077000965</v>
+        <v>4.039976588256991</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.329201414686764</v>
+        <v>2.04002201867101</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.389158486639872</v>
+        <v>5.440407962939446</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01997094516900688</v>
+        <v>0.05851258278563165</v>
       </c>
       <c r="E15">
-        <v>1.775037128421985</v>
+        <v>4.618720282647416</v>
       </c>
       <c r="F15">
-        <v>0.449345827493687</v>
+        <v>0.7748806404897977</v>
       </c>
       <c r="G15">
-        <v>0.002353963816599802</v>
+        <v>0.0007281176902129467</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.338996089993771</v>
+        <v>3.993979762697165</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.327747394530974</v>
+        <v>2.011532292400375</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.286547203603959</v>
+        <v>5.088456811407411</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01883160941687834</v>
+        <v>0.05478934961707438</v>
       </c>
       <c r="E16">
-        <v>1.688666909914076</v>
+        <v>4.334973676015267</v>
       </c>
       <c r="F16">
-        <v>0.443572302560014</v>
+        <v>0.7163007788458202</v>
       </c>
       <c r="G16">
-        <v>0.00235625486718944</v>
+        <v>0.0007321941156137483</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.259336444645896</v>
+        <v>3.731713905884249</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.320092699918007</v>
+        <v>1.852751578310944</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.223598154645003</v>
+        <v>4.874203411554163</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01813215689846714</v>
+        <v>0.05251982712852765</v>
       </c>
       <c r="E17">
-        <v>1.635723070696116</v>
+        <v>4.161944626628241</v>
       </c>
       <c r="F17">
-        <v>0.4402059564513223</v>
+        <v>0.6814811149371849</v>
       </c>
       <c r="G17">
-        <v>0.002357690436171368</v>
+        <v>0.00073470939928067</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.210403046836291</v>
+        <v>3.571904294216438</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.315997724927541</v>
+        <v>1.759107124723727</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.187391542216858</v>
+        <v>4.751526357191324</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01772967301787531</v>
+        <v>0.05121928017791788</v>
       </c>
       <c r="E18">
-        <v>1.605287270771925</v>
+        <v>4.062773229029119</v>
       </c>
       <c r="F18">
-        <v>0.4383338042023297</v>
+        <v>0.6618374882741023</v>
       </c>
       <c r="G18">
-        <v>0.002358527220967663</v>
+        <v>0.0007361619638951568</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.182234263611747</v>
+        <v>3.48034617062541</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.313861738390926</v>
+        <v>1.70653778700688</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.175132622594845</v>
+        <v>4.710080640953947</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01759336930976474</v>
+        <v>0.05077971794397484</v>
       </c>
       <c r="E19">
-        <v>1.594985077961923</v>
+        <v>4.029252769360198</v>
       </c>
       <c r="F19">
-        <v>0.4377108913924843</v>
+        <v>0.6552499540924401</v>
       </c>
       <c r="G19">
-        <v>0.002358812448110925</v>
+        <v>0.0007366548259725877</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.172692768310753</v>
+        <v>3.449404611687044</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.313176058146695</v>
+        <v>1.688952487012841</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.230299190171877</v>
+        <v>4.896952362154707</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01820663336736317</v>
+        <v>0.05276091110214765</v>
       </c>
       <c r="E20">
-        <v>1.641357386185149</v>
+        <v>4.180326908690603</v>
       </c>
       <c r="F20">
-        <v>0.4405576680592844</v>
+        <v>0.6851474264816488</v>
       </c>
       <c r="G20">
-        <v>0.002357536470981137</v>
+        <v>0.0007344410495576092</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.215614536831765</v>
+        <v>3.58887820852425</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.316410907780551</v>
+        <v>1.768939997989406</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.415650484680782</v>
+        <v>5.531832529708936</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0202649353196378</v>
+        <v>0.05947880498738556</v>
       </c>
       <c r="E21">
-        <v>1.797348368044908</v>
+        <v>4.692327044042543</v>
       </c>
       <c r="F21">
-        <v>0.4508910487123075</v>
+        <v>0.79037305236713</v>
       </c>
       <c r="G21">
-        <v>0.002353381590488926</v>
+        <v>0.0007270693031805053</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.359542441890142</v>
+        <v>4.062058170891078</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.32991069842555</v>
+        <v>2.053766372860849</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.536785523764649</v>
+        <v>5.952890886319381</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02160838739740711</v>
+        <v>0.06392409277864175</v>
       </c>
       <c r="E22">
-        <v>1.899423057474934</v>
+        <v>5.030778449425725</v>
       </c>
       <c r="F22">
-        <v>0.4582241435132346</v>
+        <v>0.8631548043447026</v>
       </c>
       <c r="G22">
-        <v>0.002350764242845495</v>
+        <v>0.0007222923807865717</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.453393066562228</v>
+        <v>4.375346913541932</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.340718734831711</v>
+        <v>2.253422460966448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.472133849767943</v>
+        <v>5.727542351053216</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02089153233118424</v>
+        <v>0.06154592684589488</v>
       </c>
       <c r="E23">
-        <v>1.844933225701794</v>
+        <v>4.849753146780046</v>
       </c>
       <c r="F23">
-        <v>0.4542568607296857</v>
+        <v>0.823912070236986</v>
       </c>
       <c r="G23">
-        <v>0.002352152222200418</v>
+        <v>0.0007248387403130047</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.403323062572554</v>
+        <v>4.207726094358463</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.3347670927688</v>
+        <v>2.145522953970982</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.227269702944284</v>
+        <v>4.886666016477818</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01817296367310206</v>
+        <v>0.05265190398096564</v>
       </c>
       <c r="E24">
-        <v>1.638810104736137</v>
+        <v>4.172015335530631</v>
       </c>
       <c r="F24">
-        <v>0.4403984624660211</v>
+        <v>0.6834887263641605</v>
       </c>
       <c r="G24">
-        <v>0.002357606042964623</v>
+        <v>0.0007345623500921072</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.213258535301406</v>
+        <v>3.581203318475389</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.316223428285554</v>
+        <v>1.764490627355826</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.963146132920542</v>
+        <v>4.000366017287092</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01523388166376094</v>
+        <v>0.0432376791857223</v>
       </c>
       <c r="E25">
-        <v>1.417099027822076</v>
+        <v>3.454047405449984</v>
       </c>
       <c r="F25">
-        <v>0.4278944255521679</v>
+        <v>0.5464213620373783</v>
       </c>
       <c r="G25">
-        <v>0.002363912980844457</v>
+        <v>0.0007452791713708119</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.007343999713839</v>
+        <v>2.918796059516467</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.304587447384591</v>
+        <v>1.402000790554183</v>
       </c>
     </row>
   </sheetData>
